--- a/data/processed/vignettes20_triage_prediction_agg_exact.xlsx
+++ b/data/processed/vignettes20_triage_prediction_agg_exact.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7775052071757333</v>
+        <v>0.7580076270745105</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4487739721404817</v>
+        <v>0.3377979937666293</v>
       </c>
     </row>
     <row r="4">
@@ -553,54 +553,42 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5270037423727414</v>
+        <v>0.3815042693844805</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Blood on toilet paper for 1 week.</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5569058923484159</v>
+        <v>0.5540890273981793</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Chest pain for 1 day.</t>
+          <t>Blood on toilet paper for 1 week.</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
@@ -609,10 +597,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3652422707833578</v>
+        <v>0.4102009530367572</v>
       </c>
     </row>
     <row r="7">
@@ -625,26 +613,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3335781608561428</v>
+        <v>0.5164921830047519</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Chest pain for 1 day.</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
           <t>Emergent</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4915428243706754</v>
+        <v>0.7762009665746792</v>
       </c>
     </row>
     <row r="9">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4461082249887934</v>
+        <v>0.332471876494861</v>
       </c>
     </row>
     <row r="10">
@@ -688,123 +688,111 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4043133669188699</v>
+        <v>0.2879020963987001</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.560277551054672</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Congestion for many years.</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>Self-care</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.3438395914655029</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4164549335531818</v>
+        <v>0.394642964963816</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4936634740180539</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Cough and fever for 3 days.</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.5048555456422548</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4268474066613638</v>
+        <v>0.4508390598310523</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Dry itchy skin in front of elbows and behind knees for years.</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>Self-care</t>
-        </is>
-      </c>
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3258186779372414</v>
+        <v>0.3949638812006547</v>
       </c>
     </row>
     <row r="16">
@@ -813,108 +801,108 @@
       <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3274542727573169</v>
+        <v>0.5161005896419089</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Dry itchy skin in front of elbows and behind knees for years.</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2740266570013977</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.4104139925864407</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
           <t>Self-care</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.5518397930498531</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.580299225458354</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Feeling down for weeks.</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>10</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.535731109638803</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Feels congested and face pain for 15 days.</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.4504224155759448</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>7</v>
-      </c>
       <c r="F20" t="n">
-        <v>0.6480199073753165</v>
+        <v>0.474962421629355</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fever and chills for 5 days.</t>
+          <t>Feels congested and face pain for 15 days.</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
@@ -924,7 +912,7 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
@@ -933,10 +921,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4257836880699672</v>
+        <v>0.4121134769772234</v>
       </c>
     </row>
     <row r="22">
@@ -949,16 +937,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4835975145677969</v>
+        <v>0.638399133100143</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fever and rash for 2 days.</t>
+          <t>Fever and chills for 5 days.</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -968,7 +956,7 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
@@ -977,10 +965,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5529047242402811</v>
+        <v>0.3283059717901408</v>
       </c>
     </row>
     <row r="24">
@@ -993,44 +981,32 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4850476551781017</v>
+        <v>0.3482904428216729</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Fever and sore throat for 2 hours.</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6911935569901709</v>
+        <v>0.6105586265938441</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Fever, headache, and cough for 4 days.</t>
+          <t>Fever and rash for 2 days.</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1040,7 +1016,7 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>Self-care</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
@@ -1049,10 +1025,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5335443773376334</v>
+        <v>0.5704210471539286</v>
       </c>
     </row>
     <row r="27">
@@ -1065,242 +1041,242 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6000160050362326</v>
+        <v>0.4896774040990868</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
+          <t>Fever and sore throat for 2 hours.</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.6383119588063664</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Fever, headache, and cough for 4 days.</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.5879773352100301</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6150877025477568</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
           <t>Fever, sore throat, enlarged lymph nodes for one week.</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>9</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.5623018373790112</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
         <v>1</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.3921567902628831</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="n"/>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>9</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.5662983427678397</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="F32" t="n">
+        <v>0.5090152670892498</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>Front of left leg is red and hurts for one day.</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>6</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.4366564158219323</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="n"/>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>4</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.4978439924217481</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Headache for 3 days.</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>Emergent</t>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>8</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.431019508560685</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n"/>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5549217536776745</v>
+        <v>0.5537387794106072</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
+          <t>Headache for 3 days.</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.3488936492136185</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.4527588400859487</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.7439274826916322</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
           <t>Itchy rash on left hand for 1 day.</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr">
         <is>
           <t>Self-care</t>
         </is>
       </c>
-      <c r="D34" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>10</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.5111430997451059</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Left knee pain for 4 months.</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>10</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.7247867504272371</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Left-sided pain between armpit and hip for 1 hour.</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t>Emergent</t>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>5</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.4378693903484295</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="n"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3202601864194951</v>
+        <v>0.6314309414291884</v>
       </c>
     </row>
     <row r="38">
@@ -1309,378 +1285,390 @@
       <c r="C38" s="1" t="n"/>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>Self-care</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5152886360678368</v>
+        <v>0.5423958831471319</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
+          <t>Left knee pain for 4 months.</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7127945270341788</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Left-sided pain between armpit and hip for 1 hour.</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7384428142999222</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
           <t>Mouth sores that come back over several years.</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.3824657825764592</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.3482502312109906</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>6</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5789746898591857</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Pain on right side of chest for 5 days.</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>Self-care</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>6</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.3814792455775607</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="n"/>
-      <c r="D40" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
         <v>2</v>
       </c>
-      <c r="F40" t="n">
-        <v>0.3921353454726807</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
-      <c r="D41" s="1" t="inlineStr">
-        <is>
-          <t>Self-care</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.5048319763714061</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>Pain on right side of chest for 5 days.</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="F44" t="n">
+        <v>0.3969079051171455</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>4</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.3857600394445489</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.5458355741635134</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Painful muscle spasms for 1 day.</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
         <v>10</v>
       </c>
-      <c r="F42" t="n">
-        <v>0.4619101478129883</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Painful muscle spasms for 1 day.</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t>Emergent</t>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>9</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.5082532046233349</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n"/>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.504968866804141</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>Painful swollen right eyelid for 1 day.</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>Self-care</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>10</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.5755492865567969</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Painful urination for 2 days.</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>3</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.4498049926824761</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="n"/>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>7</v>
-      </c>
       <c r="F47" t="n">
-        <v>0.4984809771322377</v>
+        <v>0.6109300864320387</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
+          <t>Painful swollen right eyelid for 1 day.</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>10</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.6274842312916584</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Painful urination for 2 days.</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.4728756249187478</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>6</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.4683114110755373</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
           <t>Red bumps on forehead for 4 weeks.</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.3156264668494093</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="n"/>
-      <c r="C49" s="1" t="n"/>
-      <c r="D49" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
         <v>8</v>
       </c>
-      <c r="F49" t="n">
-        <v>0.3556011857743131</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>Red, irritated eye for 3 days.</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t>Self-care</t>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>8</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.4995167476750215</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n"/>
-      <c r="C51" s="1" t="n"/>
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>2</v>
-      </c>
       <c r="F51" t="n">
-        <v>0.4508716644619651</v>
+        <v>0.402856121618987</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Right leg pain for 2 days.</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5140351916097796</v>
+        <v>0.3598015287349306</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="n"/>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Red, irritated eye for 3 days.</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5656568959207968</v>
+        <v>0.5862293940361207</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Right-sided weakness and difficulty speaking for 10 minutes.</t>
+          <t>Right leg pain for 2 days.</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4300390424589979</v>
+        <v>0.4759882333939457</v>
       </c>
     </row>
     <row r="55">
@@ -1689,86 +1677,86 @@
       <c r="C55" s="1" t="n"/>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5847098794726537</v>
+        <v>0.5671067277648096</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
+          <t>Right-sided weakness and difficulty speaking for 10 minutes.</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>10</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.8626213453058705</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
           <t>Runny nose for 12 days.</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
+      <c r="B57" s="1" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>Self-care</t>
         </is>
       </c>
-      <c r="D56" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>2</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.4661031204767326</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="n"/>
-      <c r="C57" s="1" t="n"/>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5532340807874224</v>
+        <v>0.5710760485470909</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Sore throat for 2 days.</t>
-        </is>
-      </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t>Self-care</t>
-        </is>
-      </c>
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n"/>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5193151358018692</v>
+        <v>0.6102344329914234</v>
       </c>
     </row>
     <row r="59">
@@ -1777,214 +1765,214 @@
       <c r="C59" s="1" t="n"/>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Self-care</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5499183052593652</v>
+        <v>0.5124792988362539</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
+          <t>Sore throat for 2 days.</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.6430374822565895</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="n"/>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.4372276683876214</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
           <t>Sudden episodes of dizziness for 1 month.</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
+      <c r="B62" s="1" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
         <v>10</v>
       </c>
-      <c r="F60" t="n">
-        <v>0.6555902171906534</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Sudden severe abdominal pain.</t>
-        </is>
-      </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t>Emergent</t>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.3455156108284733</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n"/>
-      <c r="B62" s="1" t="n"/>
-      <c r="C62" s="1" t="n"/>
-      <c r="D62" s="1" t="inlineStr">
-        <is>
-          <t>Emergent</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>9</v>
-      </c>
       <c r="F62" t="n">
-        <v>0.6066889704096627</v>
+        <v>0.6726463890388618</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Swollen and tender forehead at site of bee sting for 1 hour.</t>
+          <t>Sudden severe abdominal pain.</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>Self-care</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E63" t="n">
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7312169171333419</v>
+        <v>0.9066001325464063</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Thirsty and peeing a lot for 4 weeks.</t>
+          <t>Swollen and tender forehead at site of bee sting for 1 hour.</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Self-care</t>
         </is>
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E64" t="n">
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4768119184992934</v>
+        <v>0.6734699483680924</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
+          <t>Thirsty and peeing a lot for 4 weeks.</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>10</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.5767399415904715</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
           <t>Tired for 2 months.</t>
         </is>
       </c>
-      <c r="B65" s="1" t="inlineStr">
+      <c r="B66" s="1" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C65" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="D65" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>19</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.5324758747932407</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n"/>
-      <c r="B66" s="1" t="n"/>
-      <c r="C66" s="1" t="n"/>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
       <c r="D66" s="1" t="inlineStr">
         <is>
-          <t>Self-care</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5400965951032884</v>
+        <v>0.3871165672274873</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>Trouble breathing for 3 days.</t>
-        </is>
-      </c>
-      <c r="B67" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C67" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
       <c r="D67" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F67" t="n">
-        <v>0.506072043716985</v>
+        <v>0.575328673575045</v>
       </c>
     </row>
     <row r="68">
@@ -1993,22 +1981,30 @@
       <c r="C68" s="1" t="n"/>
       <c r="D68" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Self-care</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4635787191076984</v>
+        <v>0.5865183641236649</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="n"/>
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Trouble breathing for 3 days.</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="D69" s="1" t="inlineStr">
@@ -2017,10 +2013,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
-        <v>0.4315758939857501</v>
+        <v>0.4589654613213778</v>
       </c>
     </row>
     <row r="70">
@@ -2033,116 +2029,84 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F70" t="n">
-        <v>0.4366945170322499</v>
+        <v>0.4899245891230225</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Trouble breathing for 30 minutes.</t>
-        </is>
-      </c>
-      <c r="B71" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C71" s="1" t="inlineStr">
-        <is>
-          <t>Emergent</t>
-        </is>
-      </c>
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="n"/>
       <c r="D71" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3653100715922509</v>
+        <v>0.6489577819294821</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="n"/>
-      <c r="C72" s="1" t="n"/>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5501709515163227</v>
+        <v>0.2908606322525433</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Trouble breathing for 7 days.</t>
-        </is>
-      </c>
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C73" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
       <c r="D73" s="1" t="inlineStr">
         <is>
           <t>1-week</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5400412130106808</v>
+        <v>0.437735412464857</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Upper abdominal pain for 2 months.</t>
-        </is>
-      </c>
-      <c r="B74" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C74" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6072782952750988</v>
+        <v>0.6039633707530379</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Vomiting, diarrhea, and belly pain for 18 hours.</t>
+          <t>Trouble breathing for 30 minutes.</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr">
@@ -2152,63 +2116,63 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4436077067272421</v>
+        <v>0.7826728144423504</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n"/>
-      <c r="B76" s="1" t="n"/>
-      <c r="C76" s="1" t="n"/>
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Trouble breathing for 7 days.</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3874815353630751</v>
+        <v>0.311173678228426</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>White stuff coming out of vagina for 2 days.</t>
-        </is>
-      </c>
-      <c r="B77" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C77" s="1" t="inlineStr">
-        <is>
-          <t>Self-care</t>
-        </is>
-      </c>
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="n"/>
       <c r="D77" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4507999225149319</v>
+        <v>0.5616047282379284</v>
       </c>
     </row>
     <row r="78">
@@ -2217,122 +2181,226 @@
       <c r="C78" s="1" t="n"/>
       <c r="D78" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.4656776986280142</v>
+        <v>0.6561572687648729</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n"/>
-      <c r="B79" s="1" t="n"/>
-      <c r="C79" s="1" t="n"/>
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Upper abdominal pain for 2 months.</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
       <c r="D79" s="1" t="inlineStr">
         <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>20</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.6578459001208354</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Vomiting, diarrhea, and belly pain for 18 hours.</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.3359550484311397</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n"/>
+      <c r="C81" s="1" t="n"/>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>9</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.5951478684740173</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>White stuff coming out of vagina for 2 days.</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
           <t>Self-care</t>
         </is>
       </c>
-      <c r="E79" t="n">
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>5</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.4471378167946704</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>4</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.3665372885794236</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n"/>
+      <c r="C84" s="1" t="n"/>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
         <v>1</v>
       </c>
-      <c r="F79" t="n">
-        <v>0.4881014356940996</v>
+      <c r="F84" t="n">
+        <v>0.5694760354287746</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A19:A20"/>
+  <mergeCells count="76">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
     <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
     <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
     <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C84"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/processed/vignettes20_triage_prediction_agg_exact.xlsx
+++ b/data/processed/vignettes20_triage_prediction_agg_exact.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,42 +505,30 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7580076270745105</v>
+        <v>0.3493839884316203</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Belly pain and diarrhea for 7 days.</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3377979937666293</v>
+        <v>0.7213804814591211</v>
       </c>
     </row>
     <row r="4">
@@ -549,130 +537,118 @@
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Self-care</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3815042693844805</v>
+        <v>0.5310616162011143</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Belly pain and diarrhea for 7 days.</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5540890273981793</v>
+        <v>0.4198816079218219</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>28</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7403357731954993</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Blood on toilet paper for 1 week.</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.33685421559498</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>35</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.617865332469814</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.4102009530367572</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5164921830047519</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Chest pain for 1 day.</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Emergent</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Emergent</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7762009665746792</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Confused and sleepy for several hours.</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>Emergent</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>5</v>
-      </c>
       <c r="F9" t="n">
-        <v>0.332471876494861</v>
+        <v>0.5461034162069675</v>
       </c>
     </row>
     <row r="10">
@@ -681,58 +657,58 @@
       <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Self-care</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2879020963987001</v>
+        <v>0.4654786714020037</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Chest pain for 1 day.</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.560277551054672</v>
+        <v>0.3364501579121078</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Congestion for many years.</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Self-care</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>0.394642964963816</v>
+        <v>0.3256932979453618</v>
       </c>
     </row>
     <row r="13">
@@ -741,42 +717,42 @@
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4936634740180539</v>
+        <v>0.8920721726827839</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Cough and fever for 3 days.</t>
+          <t>Confused and sleepy for several hours.</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4508390598310523</v>
+        <v>0.3181366762418006</v>
       </c>
     </row>
     <row r="15">
@@ -785,58 +761,58 @@
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3949638812006547</v>
+        <v>0.6971168366507927</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Congestion for many years.</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5161005896419089</v>
+        <v>0.3873991827208856</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Dry itchy skin in front of elbows and behind knees for years.</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>Self-care</t>
-        </is>
-      </c>
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2740266570013977</v>
+        <v>0.5322014931646314</v>
       </c>
     </row>
     <row r="18">
@@ -845,74 +821,74 @@
       <c r="C18" s="1" t="n"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Self-care</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4104139925864407</v>
+        <v>0.5610082750329344</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Cough and fever for 3 days.</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>Self-care</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
-        <v>0.580299225458354</v>
+        <v>0.4179111349544726</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Feeling down for weeks.</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>0.474962421629355</v>
+        <v>0.7367106040573631</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Feels congested and face pain for 15 days.</t>
+          <t>Dry itchy skin in front of elbows and behind knees for years.</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Self-care</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
@@ -921,10 +897,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4121134769772234</v>
+        <v>0.3371218217876076</v>
       </c>
     </row>
     <row r="22">
@@ -937,54 +913,54 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F22" t="n">
-        <v>0.638399133100143</v>
+        <v>0.4709490968873457</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Fever and chills for 5 days.</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>Self-care</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3283059717901408</v>
+        <v>0.5541612726552181</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Feeling down for weeks.</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3482904428216729</v>
+        <v>0.3130480953141861</v>
       </c>
     </row>
     <row r="25">
@@ -993,218 +969,194 @@
       <c r="C25" s="1" t="n"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6105586265938441</v>
+        <v>0.6300485148558114</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5171485424239147</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Feels congested and face pain for 15 days.</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3637726594194461</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>36</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5593224318669147</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.5604269146429786</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Fever and chills for 5 days.</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.3666769209216858</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>37</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.79219346049522</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>Fever and rash for 2 days.</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>Emergent</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>4</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.5704210471539286</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="n"/>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>6</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.4896774040990868</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Fever and sore throat for 2 hours.</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>10</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.6383119588063664</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Fever, headache, and cough for 4 days.</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>Self-care</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>7</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.5879773352100301</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="n"/>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>3</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.6150877025477568</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Fever, sore throat, enlarged lymph nodes for one week.</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>9</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.5623018373790112</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5090152670892498</v>
+        <v>0.4877412957111703</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Front of left leg is red and hurts for one day.</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5537387794106072</v>
+        <v>0.5765227016880905</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Headache for 3 days.</t>
+          <t>Fever and sore throat for 2 hours.</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
@@ -1213,10 +1165,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3488936492136185</v>
+        <v>0.3696122427070243</v>
       </c>
     </row>
     <row r="35">
@@ -1229,10 +1181,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4527588400859487</v>
+        <v>0.3402021552476584</v>
       </c>
     </row>
     <row r="36">
@@ -1245,16 +1197,16 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7439274826916322</v>
+        <v>0.5809094527513824</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Itchy rash on left hand for 1 day.</t>
+          <t>Fever, headache, and cough for 4 days.</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -1273,10 +1225,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6314309414291884</v>
+        <v>0.4386031964114585</v>
       </c>
     </row>
     <row r="38">
@@ -1285,114 +1237,102 @@
       <c r="C38" s="1" t="n"/>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>Self-care</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5423958831471319</v>
+        <v>0.4512321070051566</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Left knee pain for 4 months.</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7127945270341788</v>
+        <v>0.5437993197706251</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Left-sided pain between armpit and hip for 1 hour.</t>
+          <t>Fever, sore throat, enlarged lymph nodes for one week.</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7384428142999222</v>
+        <v>0.6069351228949174</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>Mouth sores that come back over several years.</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t>Self-care</t>
-        </is>
-      </c>
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3824657825764592</v>
+        <v>0.6437837057411386</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n"/>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Front of left leg is red and hurts for one day.</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3482502312109906</v>
+        <v>0.2905118757969506</v>
       </c>
     </row>
     <row r="43">
@@ -1401,58 +1341,58 @@
       <c r="C43" s="1" t="n"/>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>Self-care</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5789746898591857</v>
+        <v>0.3350329647601092</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Pain on right side of chest for 5 days.</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n"/>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3969079051171455</v>
+        <v>0.5798921966243915</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="n"/>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Headache for 3 days.</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
           <t>1-week</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3857600394445489</v>
+        <v>0.4530731537695046</v>
       </c>
     </row>
     <row r="46">
@@ -1465,16 +1405,16 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5458355741635134</v>
+        <v>0.6506009122934667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Painful muscle spasms for 1 day.</t>
+          <t>Itchy rash on left hand for 1 day.</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
@@ -1484,7 +1424,7 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>Self-care</t>
         </is>
       </c>
       <c r="D47" s="1" t="inlineStr">
@@ -1493,110 +1433,86 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6109300864320387</v>
+        <v>0.4612891913285623</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>Painful swollen right eyelid for 1 day.</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>12</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.4092705005329779</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="inlineStr">
         <is>
           <t>Self-care</t>
         </is>
       </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>10</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.6274842312916584</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>Painful urination for 2 days.</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4728756249187478</v>
+        <v>0.5710175433286071</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="n"/>
-      <c r="C50" s="1" t="n"/>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Left knee pain for 4 months.</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
           <t>1-week</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4683114110755373</v>
+        <v>0.5421109233373093</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>Red bumps on forehead for 4 weeks.</t>
-        </is>
-      </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>0.402856121618987</v>
+        <v>0.4907383686738181</v>
       </c>
     </row>
     <row r="52">
@@ -1605,30 +1521,30 @@
       <c r="C52" s="1" t="n"/>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Self-care</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3598015287349306</v>
+        <v>0.5107373405873495</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Red, irritated eye for 3 days.</t>
+          <t>Left-sided pain between armpit and hip for 1 hour.</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>Self-care</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="D53" s="1" t="inlineStr">
@@ -1637,38 +1553,26 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5862293940361207</v>
+        <v>0.2087087716155469</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Right leg pain for 2 days.</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n"/>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4759882333939457</v>
+        <v>0.2814060603702031</v>
       </c>
     </row>
     <row r="55">
@@ -1677,20 +1581,20 @@
       <c r="C55" s="1" t="n"/>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5671067277648096</v>
+        <v>0.8382996142849601</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Right-sided weakness and difficulty speaking for 10 minutes.</t>
+          <t>Mouth sores that come back over several years.</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
@@ -1700,63 +1604,63 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>Self-care</t>
         </is>
       </c>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8626213453058705</v>
+        <v>0.3882586996754665</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Runny nose for 12 days.</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="inlineStr">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>36</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.6782114299713499</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Pain on right side of chest for 5 days.</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t>Self-care</t>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>4</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.5710760485470909</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n"/>
-      <c r="B58" s="1" t="n"/>
-      <c r="C58" s="1" t="n"/>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
           <t>1-week</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6102344329914234</v>
+        <v>0.4063657082778239</v>
       </c>
     </row>
     <row r="59">
@@ -1765,20 +1669,20 @@
       <c r="C59" s="1" t="n"/>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>Self-care</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5124792988362539</v>
+        <v>0.6834551875228323</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Sore throat for 2 days.</t>
+          <t>Painful muscle spasms for 1 day.</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
@@ -1788,7 +1692,7 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>Self-care</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="D60" s="1" t="inlineStr">
@@ -1797,10 +1701,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6430374822565895</v>
+        <v>0.2778044303161863</v>
       </c>
     </row>
     <row r="61">
@@ -1813,72 +1717,48 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4372276683876214</v>
+        <v>0.348829430823659</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Sudden episodes of dizziness for 1 month.</t>
-        </is>
-      </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6726463890388618</v>
+        <v>0.5770576543554339</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Sudden severe abdominal pain.</t>
-        </is>
-      </c>
-      <c r="B63" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C63" s="1" t="inlineStr">
-        <is>
-          <t>Emergent</t>
-        </is>
-      </c>
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="n"/>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>Self-care</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9066001325464063</v>
+        <v>0.4721780803935777</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Swollen and tender forehead at site of bee sting for 1 hour.</t>
+          <t>Painful swollen right eyelid for 1 day.</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
@@ -1897,66 +1777,42 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6734699483680924</v>
+        <v>0.3783612008932993</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Thirsty and peeing a lot for 4 weeks.</t>
-        </is>
-      </c>
-      <c r="B65" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C65" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
       <c r="D65" s="1" t="inlineStr">
         <is>
           <t>1-week</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5767399415904715</v>
+        <v>0.3842795384512311</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Tired for 2 months.</t>
-        </is>
-      </c>
-      <c r="B66" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C66" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="n"/>
+      <c r="C66" s="1" t="n"/>
       <c r="D66" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3871165672274873</v>
+        <v>0.5496095015863571</v>
       </c>
     </row>
     <row r="67">
@@ -1965,58 +1821,58 @@
       <c r="C67" s="1" t="n"/>
       <c r="D67" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Self-care</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.575328673575045</v>
+        <v>0.4330483237555055</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="n"/>
-      <c r="C68" s="1" t="n"/>
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Painful urination for 2 days.</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
       <c r="D68" s="1" t="inlineStr">
         <is>
-          <t>Self-care</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5865183641236649</v>
+        <v>0.334672300925033</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>Trouble breathing for 3 days.</t>
-        </is>
-      </c>
-      <c r="B69" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C69" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
       <c r="D69" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F69" t="n">
-        <v>0.4589654613213778</v>
+        <v>0.4644527149570636</v>
       </c>
     </row>
     <row r="70">
@@ -2025,50 +1881,58 @@
       <c r="C70" s="1" t="n"/>
       <c r="D70" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F70" t="n">
-        <v>0.4899245891230225</v>
+        <v>0.5539428890417898</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="n"/>
-      <c r="C71" s="1" t="n"/>
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Red bumps on forehead for 4 weeks.</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
       <c r="D71" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6489577819294821</v>
+        <v>0.3846277387785827</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="n"/>
-      <c r="C72" s="1" t="inlineStr">
-        <is>
-          <t>Emergent</t>
-        </is>
-      </c>
+      <c r="C72" s="1" t="n"/>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2908606322525433</v>
+        <v>0.5572636169289003</v>
       </c>
     </row>
     <row r="73">
@@ -2077,102 +1941,102 @@
       <c r="C73" s="1" t="n"/>
       <c r="D73" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Self-care</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>0.437735412464857</v>
+        <v>0.4950516910079051</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n"/>
-      <c r="B74" s="1" t="n"/>
-      <c r="C74" s="1" t="n"/>
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Red, irritated eye for 3 days.</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6039633707530379</v>
+        <v>0.4073860176678671</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Trouble breathing for 30 minutes.</t>
-        </is>
-      </c>
-      <c r="B75" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C75" s="1" t="inlineStr">
-        <is>
-          <t>Emergent</t>
-        </is>
-      </c>
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="n"/>
+      <c r="C75" s="1" t="n"/>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F75" t="n">
-        <v>0.7826728144423504</v>
+        <v>0.4274382813372729</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Trouble breathing for 7 days.</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C76" s="1" t="inlineStr">
-        <is>
-          <t>1-week</t>
-        </is>
-      </c>
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F76" t="n">
-        <v>0.311173678228426</v>
+        <v>0.4542532538054294</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n"/>
-      <c r="B77" s="1" t="n"/>
-      <c r="C77" s="1" t="n"/>
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Right leg pain for 2 days.</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
       <c r="D77" s="1" t="inlineStr">
         <is>
           <t>1-week</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5616047282379284</v>
+        <v>0.5586659829249747</v>
       </c>
     </row>
     <row r="78">
@@ -2185,16 +2049,16 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6561572687648729</v>
+        <v>0.5505052388571221</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Upper abdominal pain for 2 months.</t>
+          <t>Right-sided weakness and difficulty speaking for 10 minutes.</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr">
@@ -2204,7 +2068,7 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Emergent</t>
         </is>
       </c>
       <c r="D79" s="1" t="inlineStr">
@@ -2213,82 +2077,70 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6578459001208354</v>
+        <v>0.3781015481901555</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>Vomiting, diarrhea, and belly pain for 18 hours.</t>
-        </is>
-      </c>
-      <c r="B80" s="1" t="inlineStr">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n"/>
+      <c r="C80" s="1" t="n"/>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>43</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.8593817895635729</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Runny nose for 12 days.</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C80" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="D80" s="1" t="inlineStr">
-        <is>
-          <t>1-day</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>1</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.3359550484311397</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n"/>
-      <c r="B81" s="1" t="n"/>
-      <c r="C81" s="1" t="n"/>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
       <c r="D81" s="1" t="inlineStr">
         <is>
-          <t>Emergent</t>
+          <t>1-day</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5951478684740173</v>
+        <v>0.5487662698144578</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>White stuff coming out of vagina for 2 days.</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C82" s="1" t="inlineStr">
-        <is>
-          <t>Self-care</t>
-        </is>
-      </c>
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n"/>
+      <c r="C82" s="1" t="n"/>
       <c r="D82" s="1" t="inlineStr">
         <is>
-          <t>1-day</t>
+          <t>1-week</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F82" t="n">
-        <v>0.4471378167946704</v>
+        <v>0.6599546721378365</v>
       </c>
     </row>
     <row r="83">
@@ -2297,110 +2149,949 @@
       <c r="C83" s="1" t="n"/>
       <c r="D83" s="1" t="inlineStr">
         <is>
-          <t>1-week</t>
+          <t>Self-care</t>
         </is>
       </c>
       <c r="E83" t="n">
+        <v>13</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.5406382510674784</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Sore throat for 2 days.</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>11</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.4658105061024954</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n"/>
+      <c r="C85" s="1" t="n"/>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>29</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.524606047217242</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n"/>
+      <c r="C86" s="1" t="n"/>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>7</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.4989216950194647</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Sudden episodes of dizziness for 1 month.</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>31</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.5053578634102444</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n"/>
+      <c r="C88" s="1" t="n"/>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>16</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.4875881382032946</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Sudden severe abdominal pain.</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.2669585783187219</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n"/>
+      <c r="C90" s="1" t="n"/>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>2</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.2434686895927663</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="n"/>
+      <c r="C91" s="1" t="n"/>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>44</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.8806221510355681</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Swollen and tender forehead at site of bee sting for 1 hour.</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
+      <c r="D92" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>7</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.2635131989006588</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="n"/>
+      <c r="C93" s="1" t="n"/>
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>16</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.3145706650883839</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="n"/>
+      <c r="C94" s="1" t="n"/>
+      <c r="D94" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>9</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.4889072280736845</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n"/>
+      <c r="C95" s="1" t="n"/>
+      <c r="D95" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>15</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.4854525197628913</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Thirsty and peeing a lot for 4 weeks.</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C96" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="D96" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>3</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.2922268389031969</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="n"/>
+      <c r="C97" s="1" t="n"/>
+      <c r="D97" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>20</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.5796575345399969</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="1" t="n"/>
+      <c r="C98" s="1" t="n"/>
+      <c r="D98" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>16</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.5288496174227683</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n"/>
+      <c r="C99" s="1" t="n"/>
+      <c r="D99" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.4863936597478198</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>Tired for 2 months.</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="D100" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>5</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.3426594509987015</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="n"/>
+      <c r="C101" s="1" t="n"/>
+      <c r="D101" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>70</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.5673961311662388</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="n"/>
+      <c r="C102" s="1" t="n"/>
+      <c r="D102" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>19</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.4995529974513301</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>Trouble breathing for 3 days.</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="D103" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.5318024992389098</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="n"/>
+      <c r="C104" s="1" t="n"/>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>36</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.5077807084809441</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="n"/>
+      <c r="C105" s="1" t="n"/>
+      <c r="D105" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>57</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.7117565642198356</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n"/>
+      <c r="B106" s="1" t="n"/>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="D106" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.4692913606334046</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="1" t="n"/>
+      <c r="C107" s="1" t="n"/>
+      <c r="D107" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>38</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.431283445105407</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n"/>
+      <c r="B108" s="1" t="n"/>
+      <c r="C108" s="1" t="n"/>
+      <c r="D108" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>102</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.7938062717809137</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>Trouble breathing for 30 minutes.</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="D109" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>7</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.2819097011452482</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n"/>
+      <c r="B110" s="1" t="n"/>
+      <c r="C110" s="1" t="n"/>
+      <c r="D110" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>40</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.8550053797082438</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>Trouble breathing for 7 days.</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="D111" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>21</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.5408106011374814</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n"/>
+      <c r="B112" s="1" t="n"/>
+      <c r="C112" s="1" t="n"/>
+      <c r="D112" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>26</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.6944133925421518</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>Upper abdominal pain for 2 months.</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C113" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
         <v>4</v>
       </c>
-      <c r="F83" t="n">
-        <v>0.3665372885794236</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n"/>
-      <c r="B84" s="1" t="n"/>
-      <c r="C84" s="1" t="n"/>
-      <c r="D84" s="1" t="inlineStr">
+      <c r="F113" t="n">
+        <v>0.3823894956546204</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n"/>
+      <c r="B114" s="1" t="n"/>
+      <c r="C114" s="1" t="n"/>
+      <c r="D114" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>66</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.5462531114452911</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n"/>
+      <c r="B115" s="1" t="n"/>
+      <c r="C115" s="1" t="n"/>
+      <c r="D115" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>22</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.5650621120284171</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="1" t="n"/>
+      <c r="C116" s="1" t="n"/>
+      <c r="D116" s="1" t="inlineStr">
         <is>
           <t>Self-care</t>
         </is>
       </c>
-      <c r="E84" t="n">
+      <c r="E116" t="n">
+        <v>2</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.468722894314431</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>Vomiting, diarrhea, and belly pain for 18 hours.</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C117" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="D117" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
         <v>1</v>
       </c>
-      <c r="F84" t="n">
-        <v>0.5694760354287746</v>
+      <c r="F117" t="n">
+        <v>0.2389275010393476</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="1" t="n"/>
+      <c r="C118" s="1" t="n"/>
+      <c r="D118" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>15</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.3349462843874447</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n"/>
+      <c r="B119" s="1" t="n"/>
+      <c r="C119" s="1" t="n"/>
+      <c r="D119" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>30</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.7151694644048062</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n"/>
+      <c r="B120" s="1" t="n"/>
+      <c r="C120" s="1" t="n"/>
+      <c r="D120" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.47189283059564</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>White stuff coming out of vagina for 2 days.</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
+      <c r="D121" s="1" t="inlineStr">
+        <is>
+          <t>1-day</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.3287776288961229</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n"/>
+      <c r="B122" s="1" t="n"/>
+      <c r="C122" s="1" t="n"/>
+      <c r="D122" s="1" t="inlineStr">
+        <is>
+          <t>1-week</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>23</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.4747684826359911</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n"/>
+      <c r="B123" s="1" t="n"/>
+      <c r="C123" s="1" t="n"/>
+      <c r="D123" s="1" t="inlineStr">
+        <is>
+          <t>Emergent</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.412051423939136</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n"/>
+      <c r="B124" s="1" t="n"/>
+      <c r="C124" s="1" t="n"/>
+      <c r="D124" s="1" t="inlineStr">
+        <is>
+          <t>Self-care</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>20</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.5378509607796512</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
+  <mergeCells count="127">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
     <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="C121:C124"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
